--- a/ig/main/StructureDefinition-sdo-task.xlsx
+++ b/ig/main/StructureDefinition-sdo-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8539" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8539" uniqueCount="720">
   <si>
     <t>Property</t>
   </si>
@@ -1415,6 +1415,9 @@
   <si>
     <t xml:space="preserve">Supporting Information
 </t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Information used to perform task</t>
@@ -8668,7 +8671,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8686,14 +8689,14 @@
         <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -8730,7 +8733,7 @@
         <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
@@ -8758,7 +8761,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -8769,10 +8772,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8881,10 +8884,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8995,10 +8998,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9111,14 +9114,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9140,16 +9143,16 @@
         <v>252</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -9177,7 +9180,7 @@
         <v>156</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -9198,7 +9201,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -9216,7 +9219,7 @@
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -9227,10 +9230,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9253,13 +9256,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9310,7 +9313,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>86</v>
@@ -9328,7 +9331,7 @@
         <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -9339,13 +9342,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>449</v>
@@ -9370,14 +9373,14 @@
         <v>418</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -9444,7 +9447,7 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -9455,10 +9458,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9567,10 +9570,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9681,10 +9684,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9797,14 +9800,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9826,16 +9829,16 @@
         <v>252</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9863,7 +9866,7 @@
         <v>156</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>76</v>
@@ -9884,7 +9887,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
@@ -9902,7 +9905,7 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -9913,10 +9916,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10025,10 +10028,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10139,10 +10142,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10168,16 +10171,16 @@
         <v>142</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -10226,7 +10229,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10244,21 +10247,21 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10284,23 +10287,23 @@
         <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -10342,7 +10345,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10360,21 +10363,21 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10400,10 +10403,10 @@
         <v>198</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10454,7 +10457,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
@@ -10472,7 +10475,7 @@
         <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>76</v>
@@ -10483,13 +10486,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>449</v>
@@ -10514,14 +10517,14 @@
         <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10588,7 +10591,7 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>76</v>
@@ -10599,10 +10602,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10711,10 +10714,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10825,10 +10828,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10941,14 +10944,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10970,16 +10973,16 @@
         <v>252</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -11007,7 +11010,7 @@
         <v>156</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -11028,7 +11031,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
@@ -11046,7 +11049,7 @@
         <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -11057,10 +11060,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11169,10 +11172,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11283,10 +11286,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11312,16 +11315,16 @@
         <v>142</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
@@ -11370,7 +11373,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11388,21 +11391,21 @@
         <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11428,23 +11431,23 @@
         <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>76</v>
@@ -11486,7 +11489,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11504,21 +11507,21 @@
         <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11544,10 +11547,10 @@
         <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11598,7 +11601,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>86</v>
@@ -11616,7 +11619,7 @@
         <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
@@ -11627,20 +11630,20 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>449</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>86</v>
@@ -11658,14 +11661,14 @@
         <v>418</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -11732,7 +11735,7 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>76</v>
@@ -11743,10 +11746,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11855,10 +11858,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11969,10 +11972,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12085,14 +12088,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12114,16 +12117,16 @@
         <v>252</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -12151,7 +12154,7 @@
         <v>156</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>76</v>
@@ -12172,7 +12175,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>86</v>
@@ -12190,7 +12193,7 @@
         <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>76</v>
@@ -12201,10 +12204,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12313,10 +12316,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12427,10 +12430,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12456,16 +12459,16 @@
         <v>142</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -12514,7 +12517,7 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -12532,21 +12535,21 @@
         <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12572,23 +12575,23 @@
         <v>102</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>76</v>
@@ -12630,7 +12633,7 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12648,21 +12651,21 @@
         <v>76</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12688,10 +12691,10 @@
         <v>252</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12722,7 +12725,7 @@
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>76</v>
@@ -12740,7 +12743,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -12758,7 +12761,7 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>76</v>
@@ -12769,13 +12772,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>449</v>
@@ -12800,14 +12803,14 @@
         <v>418</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>76</v>
@@ -12874,7 +12877,7 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>76</v>
@@ -12885,10 +12888,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12997,10 +13000,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13111,10 +13114,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13227,14 +13230,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13256,16 +13259,16 @@
         <v>252</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -13293,7 +13296,7 @@
         <v>156</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>76</v>
@@ -13314,7 +13317,7 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>86</v>
@@ -13332,7 +13335,7 @@
         <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>76</v>
@@ -13343,10 +13346,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13455,10 +13458,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13569,10 +13572,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13598,16 +13601,16 @@
         <v>142</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>76</v>
@@ -13656,7 +13659,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>77</v>
@@ -13674,21 +13677,21 @@
         <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13714,23 +13717,23 @@
         <v>102</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>76</v>
@@ -13772,7 +13775,7 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>77</v>
@@ -13790,21 +13793,21 @@
         <v>76</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13830,10 +13833,10 @@
         <v>252</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13864,7 +13867,7 @@
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>76</v>
@@ -13882,7 +13885,7 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>86</v>
@@ -13900,7 +13903,7 @@
         <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13911,13 +13914,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>449</v>
@@ -13942,14 +13945,14 @@
         <v>418</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -14016,7 +14019,7 @@
         <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>76</v>
@@ -14027,10 +14030,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14139,10 +14142,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14253,10 +14256,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14369,14 +14372,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14398,16 +14401,16 @@
         <v>252</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>76</v>
@@ -14435,7 +14438,7 @@
         <v>156</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -14456,7 +14459,7 @@
         <v>76</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>86</v>
@@ -14474,7 +14477,7 @@
         <v>76</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
@@ -14485,10 +14488,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14597,10 +14600,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14711,10 +14714,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14740,16 +14743,16 @@
         <v>142</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>76</v>
@@ -14798,7 +14801,7 @@
         <v>76</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>77</v>
@@ -14816,21 +14819,21 @@
         <v>76</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14856,23 +14859,23 @@
         <v>102</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>76</v>
@@ -14914,7 +14917,7 @@
         <v>76</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14932,21 +14935,21 @@
         <v>76</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14969,13 +14972,13 @@
         <v>76</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15026,7 +15029,7 @@
         <v>76</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>86</v>
@@ -15044,7 +15047,7 @@
         <v>76</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -15055,13 +15058,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>449</v>
@@ -15086,14 +15089,14 @@
         <v>418</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>76</v>
@@ -15160,7 +15163,7 @@
         <v>76</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>76</v>
@@ -15171,10 +15174,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15283,10 +15286,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15397,10 +15400,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15513,14 +15516,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15542,16 +15545,16 @@
         <v>252</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>76</v>
@@ -15579,7 +15582,7 @@
         <v>156</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>76</v>
@@ -15600,7 +15603,7 @@
         <v>76</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>86</v>
@@ -15618,7 +15621,7 @@
         <v>76</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15629,10 +15632,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15741,10 +15744,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15855,10 +15858,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15884,16 +15887,16 @@
         <v>142</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>76</v>
@@ -15942,7 +15945,7 @@
         <v>76</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -15960,21 +15963,21 @@
         <v>76</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16000,23 +16003,23 @@
         <v>102</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>76</v>
@@ -16058,7 +16061,7 @@
         <v>76</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -16076,21 +16079,21 @@
         <v>76</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16116,10 +16119,10 @@
         <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16170,7 +16173,7 @@
         <v>76</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -16188,7 +16191,7 @@
         <v>76</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -16199,13 +16202,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>449</v>
@@ -16230,14 +16233,14 @@
         <v>418</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>76</v>
@@ -16304,7 +16307,7 @@
         <v>76</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -16315,10 +16318,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16427,10 +16430,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16541,10 +16544,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16657,14 +16660,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -16686,16 +16689,16 @@
         <v>252</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>76</v>
@@ -16723,7 +16726,7 @@
         <v>156</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16744,7 +16747,7 @@
         <v>76</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>86</v>
@@ -16762,7 +16765,7 @@
         <v>76</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
@@ -16773,10 +16776,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16885,10 +16888,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16999,10 +17002,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17028,16 +17031,16 @@
         <v>142</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>76</v>
@@ -17086,7 +17089,7 @@
         <v>76</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>77</v>
@@ -17104,21 +17107,21 @@
         <v>76</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17144,23 +17147,23 @@
         <v>102</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>76</v>
@@ -17202,7 +17205,7 @@
         <v>76</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -17220,21 +17223,21 @@
         <v>76</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17260,10 +17263,10 @@
         <v>102</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17314,7 +17317,7 @@
         <v>76</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>86</v>
@@ -17332,7 +17335,7 @@
         <v>76</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -17343,13 +17346,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>449</v>
@@ -17374,14 +17377,14 @@
         <v>418</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>76</v>
@@ -17448,7 +17451,7 @@
         <v>76</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -17459,10 +17462,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17571,10 +17574,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17685,10 +17688,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17801,14 +17804,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17830,16 +17833,16 @@
         <v>252</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>76</v>
@@ -17867,7 +17870,7 @@
         <v>156</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>76</v>
@@ -17888,7 +17891,7 @@
         <v>76</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>86</v>
@@ -17906,7 +17909,7 @@
         <v>76</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>76</v>
@@ -17917,10 +17920,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18029,10 +18032,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18143,10 +18146,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18172,16 +18175,16 @@
         <v>142</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>76</v>
@@ -18230,7 +18233,7 @@
         <v>76</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -18248,21 +18251,21 @@
         <v>76</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18288,23 +18291,23 @@
         <v>102</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>76</v>
@@ -18346,7 +18349,7 @@
         <v>76</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -18364,21 +18367,21 @@
         <v>76</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18404,10 +18407,10 @@
         <v>252</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -18438,7 +18441,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>76</v>
@@ -18456,7 +18459,7 @@
         <v>76</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>86</v>
@@ -18474,7 +18477,7 @@
         <v>76</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18485,13 +18488,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>449</v>
@@ -18516,14 +18519,14 @@
         <v>418</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>76</v>
@@ -18590,7 +18593,7 @@
         <v>76</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
@@ -18601,10 +18604,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18713,10 +18716,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18827,10 +18830,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18943,14 +18946,14 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
@@ -18972,16 +18975,16 @@
         <v>252</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>76</v>
@@ -19009,7 +19012,7 @@
         <v>156</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>76</v>
@@ -19030,7 +19033,7 @@
         <v>76</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>86</v>
@@ -19048,7 +19051,7 @@
         <v>76</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>76</v>
@@ -19059,10 +19062,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19171,10 +19174,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19285,10 +19288,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19314,16 +19317,16 @@
         <v>142</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>76</v>
@@ -19372,7 +19375,7 @@
         <v>76</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -19390,21 +19393,21 @@
         <v>76</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19430,23 +19433,23 @@
         <v>102</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>76</v>
@@ -19488,7 +19491,7 @@
         <v>76</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -19506,21 +19509,21 @@
         <v>76</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19546,10 +19549,10 @@
         <v>252</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -19580,7 +19583,7 @@
       </c>
       <c r="Y149" s="2"/>
       <c r="Z149" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>76</v>
@@ -19598,7 +19601,7 @@
         <v>76</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>86</v>
@@ -19616,7 +19619,7 @@
         <v>76</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19627,13 +19630,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>449</v>
@@ -19658,14 +19661,14 @@
         <v>418</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>76</v>
@@ -19732,7 +19735,7 @@
         <v>76</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>76</v>
@@ -19743,10 +19746,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19855,10 +19858,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -19969,10 +19972,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20085,14 +20088,14 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
@@ -20114,16 +20117,16 @@
         <v>252</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>76</v>
@@ -20151,7 +20154,7 @@
         <v>156</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -20172,7 +20175,7 @@
         <v>76</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>86</v>
@@ -20190,7 +20193,7 @@
         <v>76</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
@@ -20201,10 +20204,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20313,10 +20316,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20427,10 +20430,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20456,16 +20459,16 @@
         <v>142</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>76</v>
@@ -20514,7 +20517,7 @@
         <v>76</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -20532,21 +20535,21 @@
         <v>76</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20572,23 +20575,23 @@
         <v>102</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>76</v>
@@ -20630,7 +20633,7 @@
         <v>76</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -20648,21 +20651,21 @@
         <v>76</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20685,13 +20688,13 @@
         <v>76</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20742,7 +20745,7 @@
         <v>76</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>86</v>
@@ -20760,7 +20763,7 @@
         <v>76</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>76</v>
@@ -20771,13 +20774,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>449</v>
@@ -20802,14 +20805,14 @@
         <v>418</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>76</v>
@@ -20876,7 +20879,7 @@
         <v>76</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
@@ -20887,10 +20890,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20999,10 +21002,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -21113,10 +21116,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21229,14 +21232,14 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" t="s" s="2">
@@ -21258,16 +21261,16 @@
         <v>252</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>76</v>
@@ -21295,7 +21298,7 @@
         <v>156</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>76</v>
@@ -21316,7 +21319,7 @@
         <v>76</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>86</v>
@@ -21334,7 +21337,7 @@
         <v>76</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>76</v>
@@ -21345,10 +21348,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21457,10 +21460,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21571,10 +21574,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -21600,16 +21603,16 @@
         <v>142</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>76</v>
@@ -21658,7 +21661,7 @@
         <v>76</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>77</v>
@@ -21676,21 +21679,21 @@
         <v>76</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21716,23 +21719,23 @@
         <v>102</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>76</v>
@@ -21774,7 +21777,7 @@
         <v>76</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>77</v>
@@ -21792,21 +21795,21 @@
         <v>76</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21832,10 +21835,10 @@
         <v>252</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -21866,7 +21869,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>76</v>
@@ -21884,7 +21887,7 @@
         <v>76</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>86</v>
@@ -21902,7 +21905,7 @@
         <v>76</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>76</v>
@@ -21913,13 +21916,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>449</v>
@@ -21944,14 +21947,14 @@
         <v>418</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>76</v>
@@ -22018,7 +22021,7 @@
         <v>76</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>76</v>
@@ -22029,10 +22032,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22141,10 +22144,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -22255,10 +22258,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22371,14 +22374,14 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
@@ -22400,16 +22403,16 @@
         <v>252</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>76</v>
@@ -22437,7 +22440,7 @@
         <v>156</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>76</v>
@@ -22458,7 +22461,7 @@
         <v>76</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>86</v>
@@ -22476,7 +22479,7 @@
         <v>76</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>76</v>
@@ -22487,10 +22490,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22599,10 +22602,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -22713,10 +22716,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -22742,16 +22745,16 @@
         <v>142</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>76</v>
@@ -22800,7 +22803,7 @@
         <v>76</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>
@@ -22818,21 +22821,21 @@
         <v>76</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22858,23 +22861,23 @@
         <v>102</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="S178" t="s" s="2">
         <v>76</v>
@@ -22916,7 +22919,7 @@
         <v>76</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>77</v>
@@ -22934,21 +22937,21 @@
         <v>76</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22974,10 +22977,10 @@
         <v>252</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -23008,7 +23011,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>76</v>
@@ -23026,7 +23029,7 @@
         <v>76</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>86</v>
@@ -23044,7 +23047,7 @@
         <v>76</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>76</v>
@@ -23055,13 +23058,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>449</v>
@@ -23086,14 +23089,14 @@
         <v>418</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>76</v>
@@ -23160,7 +23163,7 @@
         <v>76</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>76</v>
@@ -23171,10 +23174,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -23283,10 +23286,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -23397,10 +23400,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -23513,14 +23516,14 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
@@ -23542,16 +23545,16 @@
         <v>252</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>76</v>
@@ -23579,7 +23582,7 @@
         <v>156</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>76</v>
@@ -23600,7 +23603,7 @@
         <v>76</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>86</v>
@@ -23618,7 +23621,7 @@
         <v>76</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>76</v>
@@ -23629,10 +23632,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -23741,10 +23744,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -23855,10 +23858,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -23884,16 +23887,16 @@
         <v>142</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>76</v>
@@ -23942,7 +23945,7 @@
         <v>76</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>77</v>
@@ -23960,21 +23963,21 @@
         <v>76</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24000,23 +24003,23 @@
         <v>102</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>76</v>
@@ -24058,7 +24061,7 @@
         <v>76</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>77</v>
@@ -24076,21 +24079,21 @@
         <v>76</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -24113,13 +24116,13 @@
         <v>76</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -24170,7 +24173,7 @@
         <v>76</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>86</v>
@@ -24188,7 +24191,7 @@
         <v>76</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>76</v>
@@ -24199,13 +24202,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>449</v>
@@ -24230,14 +24233,14 @@
         <v>418</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>76</v>
@@ -24304,7 +24307,7 @@
         <v>76</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>76</v>
@@ -24315,10 +24318,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -24427,10 +24430,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -24541,10 +24544,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -24657,14 +24660,14 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
@@ -24686,16 +24689,16 @@
         <v>252</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>76</v>
@@ -24723,7 +24726,7 @@
         <v>156</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>76</v>
@@ -24744,7 +24747,7 @@
         <v>76</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>86</v>
@@ -24762,7 +24765,7 @@
         <v>76</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>76</v>
@@ -24773,10 +24776,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -24885,10 +24888,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -24999,10 +25002,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25028,16 +25031,16 @@
         <v>142</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>76</v>
@@ -25086,7 +25089,7 @@
         <v>76</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>77</v>
@@ -25104,21 +25107,21 @@
         <v>76</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -25144,23 +25147,23 @@
         <v>102</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>76</v>
@@ -25202,7 +25205,7 @@
         <v>76</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>77</v>
@@ -25220,21 +25223,21 @@
         <v>76</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -25260,10 +25263,10 @@
         <v>252</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -25294,7 +25297,7 @@
       </c>
       <c r="Y199" s="2"/>
       <c r="Z199" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>76</v>
@@ -25312,7 +25315,7 @@
         <v>76</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>86</v>
@@ -25330,7 +25333,7 @@
         <v>76</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>76</v>
@@ -25341,20 +25344,20 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>449</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>86</v>
@@ -25372,14 +25375,14 @@
         <v>418</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>76</v>
@@ -25446,7 +25449,7 @@
         <v>76</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>76</v>
@@ -25457,10 +25460,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -25569,10 +25572,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -25683,10 +25686,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -25799,14 +25802,14 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
@@ -25828,16 +25831,16 @@
         <v>252</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>76</v>
@@ -25865,7 +25868,7 @@
         <v>156</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>76</v>
@@ -25886,7 +25889,7 @@
         <v>76</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>86</v>
@@ -25904,7 +25907,7 @@
         <v>76</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>76</v>
@@ -25915,10 +25918,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26027,10 +26030,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -26141,10 +26144,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -26170,16 +26173,16 @@
         <v>142</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O207" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P207" t="s" s="2">
         <v>76</v>
@@ -26228,7 +26231,7 @@
         <v>76</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>77</v>
@@ -26246,21 +26249,21 @@
         <v>76</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -26286,23 +26289,23 @@
         <v>102</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>76</v>
@@ -26344,7 +26347,7 @@
         <v>76</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>77</v>
@@ -26362,21 +26365,21 @@
         <v>76</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -26402,10 +26405,10 @@
         <v>252</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -26436,7 +26439,7 @@
       </c>
       <c r="Y209" s="2"/>
       <c r="Z209" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>76</v>
@@ -26454,7 +26457,7 @@
         <v>76</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>86</v>
@@ -26472,7 +26475,7 @@
         <v>76</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>76</v>
@@ -26483,13 +26486,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>449</v>
@@ -26514,14 +26517,14 @@
         <v>418</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>76</v>
@@ -26588,7 +26591,7 @@
         <v>76</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>76</v>
@@ -26599,10 +26602,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -26711,10 +26714,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -26825,10 +26828,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -26941,14 +26944,14 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
@@ -26970,16 +26973,16 @@
         <v>252</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>76</v>
@@ -27007,7 +27010,7 @@
         <v>156</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z214" t="s" s="2">
         <v>76</v>
@@ -27028,7 +27031,7 @@
         <v>76</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>86</v>
@@ -27046,7 +27049,7 @@
         <v>76</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>76</v>
@@ -27057,10 +27060,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -27169,10 +27172,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -27283,10 +27286,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -27312,16 +27315,16 @@
         <v>142</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O217" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>76</v>
@@ -27370,7 +27373,7 @@
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>77</v>
@@ -27388,21 +27391,21 @@
         <v>76</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -27428,23 +27431,23 @@
         <v>102</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>76</v>
@@ -27486,7 +27489,7 @@
         <v>76</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>77</v>
@@ -27504,21 +27507,21 @@
         <v>76</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -27544,10 +27547,10 @@
         <v>198</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -27598,7 +27601,7 @@
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>86</v>
@@ -27616,7 +27619,7 @@
         <v>76</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>76</v>
@@ -27627,13 +27630,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>449</v>
@@ -27658,14 +27661,14 @@
         <v>418</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>76</v>
@@ -27732,7 +27735,7 @@
         <v>76</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>76</v>
@@ -27743,10 +27746,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -27855,10 +27858,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -27969,10 +27972,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -28085,14 +28088,14 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
@@ -28114,16 +28117,16 @@
         <v>252</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O224" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>76</v>
@@ -28151,7 +28154,7 @@
         <v>156</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Z224" t="s" s="2">
         <v>76</v>
@@ -28172,7 +28175,7 @@
         <v>76</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>86</v>
@@ -28190,7 +28193,7 @@
         <v>76</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>76</v>
@@ -28201,10 +28204,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -28313,10 +28316,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -28427,10 +28430,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -28456,16 +28459,16 @@
         <v>142</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>76</v>
@@ -28514,7 +28517,7 @@
         <v>76</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>77</v>
@@ -28532,21 +28535,21 @@
         <v>76</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -28572,23 +28575,23 @@
         <v>102</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>76</v>
@@ -28630,7 +28633,7 @@
         <v>76</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>77</v>
@@ -28648,21 +28651,21 @@
         <v>76</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -28688,10 +28691,10 @@
         <v>198</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -28742,7 +28745,7 @@
         <v>76</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>86</v>
@@ -28760,7 +28763,7 @@
         <v>76</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM229" t="s" s="2">
         <v>76</v>
@@ -28771,10 +28774,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -28800,14 +28803,14 @@
         <v>418</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>76</v>
@@ -28856,7 +28859,7 @@
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>77</v>
@@ -28874,7 +28877,7 @@
         <v>76</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>76</v>
@@ -28885,10 +28888,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -28997,10 +29000,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -29111,10 +29114,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -29227,14 +29230,14 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" t="s" s="2">
@@ -29256,16 +29259,16 @@
         <v>252</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N234" t="s" s="2">
         <v>262</v>
       </c>
       <c r="O234" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>76</v>
@@ -29293,7 +29296,7 @@
         <v>156</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>76</v>
@@ -29314,7 +29317,7 @@
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>86</v>
@@ -29332,7 +29335,7 @@
         <v>76</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>76</v>
@@ -29343,10 +29346,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -29369,17 +29372,17 @@
         <v>76</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>76</v>
@@ -29428,7 +29431,7 @@
         <v>76</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>86</v>
@@ -29446,7 +29449,7 @@
         <v>76</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>76</v>

--- a/ig/main/StructureDefinition-sdo-task.xlsx
+++ b/ig/main/StructureDefinition-sdo-task.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8539" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8539" uniqueCount="719">
   <si>
     <t>Property</t>
   </si>
@@ -1835,43 +1835,40 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J34-CategorieOrganisation-ROR/FHIR/JDV-J34-CategorieOrganisation-ROR</t>
   </si>
   <si>
-    <t>Task.input:temporaliteAcceuil</t>
-  </si>
-  <si>
-    <t>temporaliteAcceuil</t>
+    <t>Task.input:temporaliteAccueil</t>
+  </si>
+  <si>
+    <t>temporaliteAccueil</t>
   </si>
   <si>
     <t>Permet de définir la fréquence d'accueil lors d'une prise en charge en ESMS</t>
   </si>
   <si>
-    <t>Task.input:temporaliteAcceuil.id</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.extension</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.id</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.extension</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.coding</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.text</t>
-  </si>
-  <si>
-    <t>temporaliteAccueil</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.value[x]</t>
+    <t>Task.input:temporaliteAccueil.id</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.extension</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.id</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.extension</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.coding</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.text</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.value[x]</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
@@ -19449,7 +19446,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>76</v>
@@ -19520,7 +19517,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>466</v>
@@ -19583,7 +19580,7 @@
       </c>
       <c r="Y149" s="2"/>
       <c r="Z149" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>76</v>
@@ -19630,13 +19627,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>449</v>
@@ -19661,7 +19658,7 @@
         <v>418</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>452</v>
@@ -19746,7 +19743,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>456</v>
@@ -19858,7 +19855,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>457</v>
@@ -19972,7 +19969,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>458</v>
@@ -20088,7 +20085,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>459</v>
@@ -20204,7 +20201,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>478</v>
@@ -20316,7 +20313,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>480</v>
@@ -20430,7 +20427,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>482</v>
@@ -20546,7 +20543,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>491</v>
@@ -20591,7 +20588,7 @@
       </c>
       <c r="Q158" s="2"/>
       <c r="R158" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>76</v>
@@ -20662,7 +20659,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>466</v>
@@ -20688,7 +20685,7 @@
         <v>76</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L159" t="s" s="2">
         <v>468</v>
@@ -20774,13 +20771,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>449</v>
@@ -20805,7 +20802,7 @@
         <v>418</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M160" t="s" s="2">
         <v>452</v>
@@ -20890,7 +20887,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>456</v>
@@ -21002,7 +20999,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>457</v>
@@ -21116,7 +21113,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>458</v>
@@ -21232,7 +21229,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>459</v>
@@ -21348,7 +21345,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>478</v>
@@ -21460,7 +21457,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>480</v>
@@ -21574,7 +21571,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>482</v>
@@ -21690,7 +21687,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>491</v>
@@ -21735,7 +21732,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>76</v>
@@ -21806,7 +21803,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>466</v>
@@ -21869,7 +21866,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>76</v>
@@ -21916,13 +21913,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>449</v>
@@ -21947,7 +21944,7 @@
         <v>418</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>452</v>
@@ -22032,7 +22029,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>456</v>
@@ -22144,7 +22141,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>457</v>
@@ -22258,7 +22255,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>458</v>
@@ -22374,7 +22371,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>459</v>
@@ -22490,7 +22487,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>478</v>
@@ -22602,7 +22599,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>480</v>
@@ -22716,7 +22713,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>482</v>
@@ -22832,7 +22829,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>491</v>
@@ -22877,7 +22874,7 @@
       </c>
       <c r="Q178" s="2"/>
       <c r="R178" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S178" t="s" s="2">
         <v>76</v>
@@ -22948,7 +22945,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>466</v>
@@ -23011,7 +23008,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>76</v>
@@ -23058,13 +23055,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>449</v>
@@ -23089,7 +23086,7 @@
         <v>418</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M180" t="s" s="2">
         <v>452</v>
@@ -23174,7 +23171,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>456</v>
@@ -23286,7 +23283,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>457</v>
@@ -23400,7 +23397,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>458</v>
@@ -23516,7 +23513,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>459</v>
@@ -23632,7 +23629,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>478</v>
@@ -23744,7 +23741,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>480</v>
@@ -23858,7 +23855,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>482</v>
@@ -23974,7 +23971,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>491</v>
@@ -24019,7 +24016,7 @@
       </c>
       <c r="Q188" s="2"/>
       <c r="R188" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>76</v>
@@ -24090,7 +24087,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>466</v>
@@ -24202,13 +24199,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D190" t="s" s="2">
         <v>449</v>
@@ -24233,7 +24230,7 @@
         <v>418</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>452</v>
@@ -24318,7 +24315,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>456</v>
@@ -24430,7 +24427,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>457</v>
@@ -24544,7 +24541,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>458</v>
@@ -24660,7 +24657,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>459</v>
@@ -24776,7 +24773,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>478</v>
@@ -24888,7 +24885,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>480</v>
@@ -25002,7 +24999,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>482</v>
@@ -25118,7 +25115,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>491</v>
@@ -25163,7 +25160,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>76</v>
@@ -25234,7 +25231,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>466</v>
@@ -25263,7 +25260,7 @@
         <v>252</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M199" t="s" s="2">
         <v>469</v>
@@ -25297,7 +25294,7 @@
       </c>
       <c r="Y199" s="2"/>
       <c r="Z199" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>76</v>
@@ -25344,13 +25341,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D200" t="s" s="2">
         <v>449</v>
@@ -25375,7 +25372,7 @@
         <v>418</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M200" t="s" s="2">
         <v>452</v>
@@ -25460,7 +25457,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>456</v>
@@ -25572,7 +25569,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>457</v>
@@ -25686,7 +25683,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>458</v>
@@ -25802,7 +25799,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>459</v>
@@ -25918,7 +25915,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>478</v>
@@ -26030,7 +26027,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>480</v>
@@ -26144,7 +26141,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>482</v>
@@ -26260,7 +26257,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>491</v>
@@ -26305,7 +26302,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>76</v>
@@ -26376,7 +26373,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>466</v>
@@ -26439,7 +26436,7 @@
       </c>
       <c r="Y209" s="2"/>
       <c r="Z209" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>76</v>
@@ -26486,13 +26483,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>449</v>
@@ -26517,7 +26514,7 @@
         <v>418</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M210" t="s" s="2">
         <v>452</v>
@@ -26602,7 +26599,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>456</v>
@@ -26714,7 +26711,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>457</v>
@@ -26828,7 +26825,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>458</v>
@@ -26944,7 +26941,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>459</v>
@@ -27060,7 +27057,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>478</v>
@@ -27172,7 +27169,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>480</v>
@@ -27286,7 +27283,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>482</v>
@@ -27402,7 +27399,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>491</v>
@@ -27447,7 +27444,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>76</v>
@@ -27518,7 +27515,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>466</v>
@@ -27630,13 +27627,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>448</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>449</v>
@@ -27661,7 +27658,7 @@
         <v>418</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M220" t="s" s="2">
         <v>452</v>
@@ -27746,7 +27743,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>456</v>
@@ -27858,7 +27855,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>457</v>
@@ -27972,7 +27969,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>458</v>
@@ -28088,7 +28085,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>459</v>
@@ -28204,7 +28201,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>478</v>
@@ -28316,7 +28313,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>480</v>
@@ -28430,7 +28427,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>482</v>
@@ -28546,7 +28543,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>491</v>
@@ -28591,7 +28588,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>76</v>
@@ -28662,7 +28659,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>466</v>
@@ -28774,10 +28771,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -28803,14 +28800,14 @@
         <v>418</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>705</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>76</v>
@@ -28859,7 +28856,7 @@
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>77</v>
@@ -28888,10 +28885,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29000,10 +28997,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -29114,10 +29111,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -29230,10 +29227,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -29259,16 +29256,16 @@
         <v>252</v>
       </c>
       <c r="L234" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M234" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>713</v>
       </c>
       <c r="N234" t="s" s="2">
         <v>262</v>
       </c>
       <c r="O234" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>76</v>
@@ -29296,7 +29293,7 @@
         <v>156</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>76</v>
@@ -29317,7 +29314,7 @@
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>86</v>
@@ -29346,10 +29343,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -29375,14 +29372,14 @@
         <v>467</v>
       </c>
       <c r="L235" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M235" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>76</v>
@@ -29431,7 +29428,7 @@
         <v>76</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>86</v>
